--- a/backend/temp.xlsx
+++ b/backend/temp.xlsx
@@ -6,17 +6,17 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_374BBB93_FB09_473D_BF09_44C6B4C97F6C_.wvu.FilterData">Sheet1!$A$1:$F$25</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EB93233B_66B3_48B8_9BC5_7F19B75BFFC1_.wvu.FilterData">Sheet1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{374BBB93-FB09-473D-BF09-44C6B4C97F6C}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EB93233B-66B3-48B8-9BC5-7F19B75BFFC1}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Bilgi Akışı Aldığımız Yardım Merkezleri</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/vLrszLdHbTu9uGiP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koli taşıyacak insan gücüne ihtiyaç duyuluyor. </t>
   </si>
   <si>
     <t>Ahmet Taner Kışlalı Spor Salonu</t>
@@ -210,7 +207,7 @@
     <t>Ufuk Üniversitesi İncek Kampüs Spor Salonu</t>
   </si>
   <si>
-    <t>Bebek bezi, maması, kıyafeti gibi malzemeler ACİL lazım. Elektronik ihtiyaçların da giderilmesi gerekiliyor.</t>
+    <t>Pil, Powerbank, Bebek bezi, maması, kıyafeti gibi malzemeler ACİL lazım. Elektronik ihtiyaçların da giderilmesi gerekiliyor.</t>
   </si>
   <si>
     <t>Gazi Üniversitesi Merkez Kampüs Kapalı Otopark</t>
@@ -875,21 +872,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="11">
-        <v>0.6340277777777777</v>
+        <v>0.6659722222222222</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="11">
         <v>0.5131944444444444</v>
@@ -897,16 +892,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="11">
         <v>0.5923611111111111</v>
@@ -914,16 +909,16 @@
       <c r="D5" s="13"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="11">
         <v>0.5833333333333334</v>
@@ -931,16 +926,16 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="11">
         <v>0.5625</v>
@@ -948,16 +943,16 @@
       <c r="D7" s="15"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="11">
         <v>0.5701388888888889</v>
@@ -965,16 +960,16 @@
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="11">
         <v>0.5923611111111111</v>
@@ -986,7 +981,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="11">
@@ -998,10 +993,10 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="11">
         <v>0.5013888888888889</v>
@@ -1012,10 +1007,10 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="11">
         <v>0.61875</v>
@@ -1023,12 +1018,12 @@
       <c r="D12" s="18"/>
       <c r="E12" s="16"/>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="11">
@@ -1037,12 +1032,12 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="20">
@@ -1051,12 +1046,12 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="20">
@@ -1065,15 +1060,15 @@
       <c r="D15" s="21"/>
       <c r="E15" s="16"/>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="11">
         <v>0.5625</v>
@@ -1081,15 +1076,15 @@
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="11">
         <v>0.5229166666666667</v>
@@ -1097,15 +1092,15 @@
       <c r="D17" s="23"/>
       <c r="E17" s="16"/>
       <c r="F17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="11">
         <v>0.525</v>
@@ -1113,12 +1108,12 @@
       <c r="D18" s="21"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25">
@@ -1127,15 +1122,15 @@
       <c r="D19" s="21"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="11">
         <v>0.6215277777777778</v>
@@ -1143,12 +1138,12 @@
       <c r="D20" s="18"/>
       <c r="E20" s="16"/>
       <c r="F20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="11">
@@ -1157,12 +1152,12 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -1174,20 +1169,20 @@
     </row>
     <row r="23">
       <c r="A23" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="32">
-        <v>0.6388888888888888</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="C24" s="32">
         <v>0.625</v>
@@ -1195,15 +1190,15 @@
       <c r="D24" s="12"/>
       <c r="E24" s="30"/>
       <c r="F24" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="C25" s="37">
         <v>0.6402777777777777</v>
@@ -1211,7 +1206,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -1221,19 +1216,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="39"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="39"/>
     </row>
@@ -1241,85 +1236,85 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{374BBB93-FB09-473D-BF09-44C6B4C97F6C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EB93233B-66B3-48B8-9BC5-7F19B75BFFC1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$25"/>
     </customSheetView>
   </customSheetViews>
